--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhagya_Kudupudi\eclipse-workspace\PageObjectModel_w\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA4709-BAE6-4B8F-9765-7FFC7A31EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B85EA-6662-4442-8DEE-98B0D9250681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>username</t>
   </si>
@@ -112,10 +112,19 @@
     <t>tata</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>bmw</t>
+  </si>
+  <si>
+    <t>carTitle</t>
+  </si>
+  <si>
+    <t>Tata Cars</t>
+  </si>
+  <si>
+    <t>BMW Cars</t>
+  </si>
+  <si>
+    <t>Hyundai Cars</t>
   </si>
 </sst>
 </file>
@@ -613,15 +622,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90936E5B-7EA7-4C6B-85F8-0609F7355FC2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -631,8 +640,11 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -642,8 +654,11 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -653,16 +668,22 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
